--- a/UCABEgresadosV1/app/sources/Resultados Egresados UCAB.xlsx
+++ b/UCABEgresadosV1/app/sources/Resultados Egresados UCAB.xlsx
@@ -32,16 +32,16 @@
     <t>ricky</t>
   </si>
   <si>
-    <t>Ingenierí­a Infomática</t>
+    <t>Ingeniería Infomática</t>
   </si>
   <si>
     <t>Para el Consejo Extensión</t>
   </si>
   <si>
+    <t>juan</t>
+  </si>
+  <si>
     <t>julia</t>
-  </si>
-  <si>
-    <t>juan</t>
   </si>
   <si>
     <t>jorge</t>
@@ -639,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/UCABEgresadosV1/app/sources/Resultados Egresados UCAB.xlsx
+++ b/UCABEgresadosV1/app/sources/Resultados Egresados UCAB.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>Resultados de los Representantes de Egresados, noviembre 2017 - Sede Guayana</t>
   </si>
   <si>
-    <t>Para el Consejo de Escuela Informática</t>
+    <t>Para el Consejo de Escuela de Ingeniería Civil</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -29,31 +29,52 @@
     <t>Votos</t>
   </si>
   <si>
-    <t>ricky</t>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>Ingeniería Civil</t>
+  </si>
+  <si>
+    <t>Para el Consejo de Escuela de Ingeniería Informática</t>
+  </si>
+  <si>
+    <t>miguel</t>
   </si>
   <si>
     <t>Ingeniería Infomática</t>
   </si>
   <si>
-    <t>Para el Consejo Extensión</t>
-  </si>
-  <si>
-    <t>juan</t>
-  </si>
-  <si>
-    <t>julia</t>
-  </si>
-  <si>
-    <t>jorge</t>
+    <t>jose</t>
+  </si>
+  <si>
+    <t>angel</t>
+  </si>
+  <si>
+    <t>Para el Consejo de Extensión</t>
+  </si>
+  <si>
+    <t>gustavo</t>
+  </si>
+  <si>
+    <t>maria</t>
+  </si>
+  <si>
+    <t>Para el Consejo Universitario</t>
   </si>
   <si>
     <t>Consejos en los cuales tienen representación los egresados:</t>
   </si>
   <si>
-    <t>Consejo de Escuela Informática</t>
-  </si>
-  <si>
-    <t>Consejo Extensión</t>
+    <t>Consejo de Escuela de Ingeniería Civil</t>
+  </si>
+  <si>
+    <t>Consejo de Escuela de Ingeniería Informática</t>
+  </si>
+  <si>
+    <t>Consejo de Extensión</t>
+  </si>
+  <si>
+    <t>Consejo Universitario</t>
   </si>
 </sst>
 </file>
@@ -555,7 +576,7 @@
   <sheetPr>
     <tabColor rgb="660033"/>
   </sheetPr>
-  <dimension ref="A5:K17"/>
+  <dimension ref="A5:K36"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -601,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -625,21 +646,21 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,9 +668,162 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2">
         <v>0</v>
       </c>
     </row>
@@ -668,7 +842,7 @@
   <sheetPr>
     <tabColor rgb="009933"/>
   </sheetPr>
-  <dimension ref="A6:D8"/>
+  <dimension ref="A6:D10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="3" max="3" width="45" customWidth="1"/>
@@ -676,7 +850,7 @@
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -689,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -700,7 +874,29 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
